--- a/public/templates/Bom_Sample.xlsx
+++ b/public/templates/Bom_Sample.xlsx
@@ -20,12 +20,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t xml:space="preserve">Product Code</t>
   </si>
   <si>
-    <t xml:space="preserve">Attributes</t>
+    <t xml:space="preserve">Product Attribute name 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Attribute Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Attribute name 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Attribute Value 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Attribute name 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Attribute Value 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Attribute name 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Attribute Value 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Attribute name 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Attribute Value 5</t>
   </si>
   <si>
     <t xml:space="preserve">Production Type</t>
@@ -79,10 +106,19 @@
     <t xml:space="preserve">Station</t>
   </si>
   <si>
+    <t xml:space="preserve">Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor Code</t>
+  </si>
+  <si>
     <t xml:space="preserve">Item code of the product for which BOM is to be defined</t>
   </si>
   <si>
-    <t xml:space="preserve">Leave blank. Since there are no attributes for Supreme </t>
+    <t xml:space="preserve">Leave blank if not applicable</t>
   </si>
   <si>
     <t xml:space="preserve">In-house 
@@ -115,6 +151,9 @@
     <t xml:space="preserve">FGTESTNLB001</t>
   </si>
   <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
     <t xml:space="preserve">In-house</t>
   </si>
   <si>
@@ -127,19 +166,16 @@
     <t xml:space="preserve">RMTESTICI001</t>
   </si>
   <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
     <t xml:space="preserve">STATION A</t>
   </si>
   <si>
+    <t xml:space="preserve">Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRTESTWIM001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">black</t>
   </si>
   <si>
     <t xml:space="preserve">STATION B</t>
@@ -347,32 +383,44 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="20.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="17.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="20" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="20.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="18.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="32" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,129 +481,251 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="Q2" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="Q3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5" t="n">
         <v>1.32</v>
       </c>
-      <c r="R3" s="5" t="n">
+      <c r="AA3" s="5" t="n">
         <v>10.25</v>
       </c>
-      <c r="S3" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="AB3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5" t="n">
+      <c r="L4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5" t="n">
         <v>2.5</v>
       </c>
-      <c r="R4" s="5" t="n">
+      <c r="AA4" s="5" t="n">
         <v>20.55</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
@@ -577,6 +747,18 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
@@ -598,6 +780,18 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
@@ -619,6 +813,18 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
@@ -640,6 +846,18 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
@@ -661,6 +879,18 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
@@ -682,8 +912,19 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
